--- a/loaded_influencer_data/cloverlee_ugc/cloverlee_ugc_video.xlsx
+++ b/loaded_influencer_data/cloverlee_ugc/cloverlee_ugc_video.xlsx
@@ -506,19 +506,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7436440031415258401</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4857</v>
+        <v>4861</v>
       </c>
       <c r="C2" t="n">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D2" t="n">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -528,24 +528,23 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>This is your PSA to NOT sleep on Homebargains skincare…
-Honestly, this range is SO nice (pun intended 😉) rumour has it these are Tom Ford dupes ✨</t>
+          <t>홈바게인 스킨케어에서 잠을 자지 않는 PSA입니다... 솔직히, 이 범위는 너무 좋다 (말장난 의도😉) 소문에 의하면 이것이 톰 포드의 속임수라고 한다✨ 이 두 향은 모두 죽을 것이고, 그 몸의 안개😮‍💨 당신은 당신의 지역에서 So Cosmetics 범위를 잡을 수 🫶🏻 * 영재</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>13.87687873172741</v>
+        <v>12.05513268874717</v>
       </c>
       <c r="I2" t="n">
-        <v>11.42680667078444</v>
+        <v>11.43797572515943</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.450072060942969</v>
+        <v>0.6171569635877392</v>
       </c>
       <c r="L2" t="n">
-        <v>1.66769610870908</v>
+        <v>1.666323801686896</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -559,13 +558,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7483575743771921686</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="C3" t="n">
         <v>11</v>
@@ -581,25 +580,23 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>@Centellian24 skincare is the one.
-You can’t tell me otherwise!! Their formulas are just 🤌🏻
-✨ Madeca Tightening ampoule pads will effectively minimise pores, improve elasticity and firmness and provide a cooling and tightening effect in just 7 seconds!</t>
+          <t>스킨케어가 그 하나입니다. 달리 말하면 안 돼!! 그들의 공식은 🤌🏻 ✨ Madeca 타이트닝 앰플 패드는 모공을 효과적으로 최소화하고 탄력과 단단함을 개선하며 단 7초 만에 냉각 및 조임 효과를 제공합니다! ✨ Madeca Mela Capture Ampoule 패드는 어두운 반점과 과다 색소 침착을 목표로 하여 외관을 줄이고 더 밝고 고른 피부 톤을 제공합니다. ✨ 마데카 크림 타임 리버스는 당신에게 엄청난 수분 공급을 줄 것입니다! 고급 TECA로 손상된 피부 장벽을 수리하고 피부를 빛나게 합니다. 저는 이 스킨케어에 푹 빠졌어요. 솔직히 제 피부 생김새가 이렇게 좋아지고 색소침착이 그 어느 때보다 적습니다! 광고 | 영재</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.941747572815534</v>
+        <v>1.925722145804677</v>
       </c>
       <c r="I3" t="n">
-        <v>1.525658807212205</v>
+        <v>1.513067400275103</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4160887656033287</v>
+        <v>0.4126547455295735</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2773925104022191</v>
+        <v>0.2751031636863824</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -611,16 +608,16 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7474295975750814998</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1738</v>
+        <v>1864</v>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
         <v>9</v>
@@ -633,25 +630,23 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>@Centellian24 skincare is the one.
-You can’t tell me otherwise!! Their formulas are just 🤌🏻
-✨ Madeca Tightening ampoule pads will effectively minimise pores, improve elasticity and firmness and provide a cooling and tightening effect in just 7 seconds!</t>
+          <t>홈바겐은 그냥 진정해! 광고 | 나는 그들의 스킨케어가 현재 얼마나 많이 파괴되고 있는지 따라갈 수 없다... 포장부터 향, 질감까지. 난 그냥 다 좋아! 이 새로운 센치 뷰티 제품은 하루 종일 당신을 촉촉하고 빛나게 할 것입니다! 지금 가장 가까운 곳에서 당신의 것을 잡으십시오.</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1.956271576524741</v>
+        <v>1.877682403433476</v>
       </c>
       <c r="I4" t="n">
-        <v>1.43843498273878</v>
+        <v>1.394849785407725</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5178365937859608</v>
+        <v>0.4828326180257511</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1726121979286536</v>
+        <v>0.1609442060085837</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -663,13 +658,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7474294201883102487</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="C5" t="n">
         <v>16</v>
@@ -685,23 +680,23 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>You’ve all heard of Gua-Sha’s, but have you heard of the @Centellian24_global Prime Ritual White Pearl?! It’s a high frequency 4-in-1 state of the art electronic Gua-Sha!</t>
+          <t>여러분 모두 과샤에 대해 들어보셨겠지만, 프라임 의식 백진주에 대해 들어보셨나요?! 예술 전자 과샤의 고주파 4-in-1 상태입니다! 광고 | 임상적으로 입증된 빠른 탄력 개선으로 3가지 열 에너지 옵션 중 하나를 사용하여 피부 탄력과 콜라겐 생성을 높이고 단단하고 리프팅할 수 있습니다. 이것은 사용하기 매우 쉬운 도구이며 원하는 부위에 대한 관리 영역을 수동으로 선택하여 얼굴과 상체에 적용할 수 있습니다. 부스팅 크림 중 하나를 추가하고 흡수될 때까지 부드럽게 마사지하는 동작을 사용하십시오. 이 도구가 얼마나 간단하고 효과적인지 여러분과 공유하고 싶으니 2부를 계속 지켜봐 주세요!</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2.747909199522103</v>
+        <v>2.731591448931117</v>
       </c>
       <c r="I5" t="n">
-        <v>1.911589008363202</v>
+        <v>1.900237529691212</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8363201911589008</v>
+        <v>0.831353919239905</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4778972520908005</v>
+        <v>0.4750593824228029</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -713,13 +708,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7472450714149702934</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C6" t="n">
         <v>44</v>
@@ -735,24 +730,23 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>In need of a new potion? 🍉
-The new Radiance range from GLOW will leave you glowing with their hyaluronic acid and niacinamide packed potions (and they’re also a fantastic dupe - if you know you know!)</t>
+          <t>새 물약이 필요하세요?🍉 GLOW의 새로운 Radiance 범위는 히알루론산과 나이아신아마이드로 포장된 물약으로 여러분을 빛나게 할 것입니다(그리고 그것들은 또한 환상적인 속임수입니다 - 알고 있다면!) 당신의 지역에서 당신의 것을 잡으십시오 * 영재</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>16.94915254237288</v>
+        <v>16.71309192200557</v>
       </c>
       <c r="I6" t="n">
-        <v>12.42937853107345</v>
+        <v>12.25626740947075</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>4.519774011299435</v>
+        <v>4.456824512534819</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5649717514124294</v>
+        <v>0.5571030640668524</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -764,13 +758,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7465745800379796769</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2303</v>
+        <v>2312</v>
       </c>
       <c r="C7" t="n">
         <v>131</v>
@@ -786,24 +780,23 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Peek-a-dupe 👀
-We all love a fragrance dupe, right?? Charlie Tate London have some of the best dupes I’ve ever smelt with their stunning new body mists! And can we just take a moment for this super sleek packaging?!</t>
+          <t>엿보기👀 우리 모두는 향기를 좋아합니다, 그렇죠? 찰리 테이트 런던에는 내가 그들의 놀라운 새로운 바디 미스트로 냄새를 맡은 최고의 속임수가 있습니다! 그리고 이 매우 매끈한 포장을 잠시 기다려도 될까요?! 어떤 것을 선택하실 건가요?👇🏻 🤎예&gt; Georgie Armani Si P 🩵완벽하다&gt; Caroline Herrera Good Girl 💜아름다운&gt; Lancme La Vie Est Belle 🩶샌들&gt;르 라보 산타 33 🩷꽃잎 폭발 &gt; 빅토르 &amp; 롤프 꽃 폭탄 당신의 것을 잡으러 가세요!! 광고</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.121146330872774</v>
+        <v>7.093425605536333</v>
       </c>
       <c r="I7" t="n">
-        <v>5.688232739904472</v>
+        <v>5.666089965397924</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1.432913590968302</v>
+        <v>1.427335640138408</v>
       </c>
       <c r="L7" t="n">
-        <v>1.128962223187147</v>
+        <v>1.124567474048443</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -815,13 +808,13 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7461680897171983648</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="C8" t="n">
         <v>97</v>
@@ -837,24 +830,23 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>POV: you find the best collagen and caffeine eye patches that reduce puffiness and dark circles ✨
-@Plantifique</t>
+          <t>POV: 부기와 다크서클을 줄여주는 최고의 콜라겐과 카페인 안대를 찾을 수 ✨ 금색 안대는 바다 이끼, 스피루리나, 가수 분해 콜라겐 등 독특한 성분이 어우러져 부기를 줄이고 지친 눈을 없애주는 데 도움을 준다. 이것들은 내 아침 일상에서 매우 중요한 것이 되었습니다! 지금 Amazon에서 구입하거나 Plantifique로 직접 쇼핑할 수 있습니다. 🤍</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>11.63873370577281</v>
+        <v>11.59554730983302</v>
       </c>
       <c r="I8" t="n">
-        <v>9.031657355679702</v>
+        <v>8.998144712430427</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>2.60707635009311</v>
+        <v>2.597402597402597</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6517690875232774</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -866,46 +858,45 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7453914402648001824</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C9" t="n">
         <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>POV: you find the best collagen and caffeine eye patches that reduce puffiness and dark circles ✨
-@Plantifique</t>
+          <t>새해는 새로운 의도를 의미하며, 모든 것을 실현할 수 있는 완벽한 방법을 찾았습니다✨ 광고. 이것은 크리스탈 보석으로 가득 찬 월간 상자, 힐링 보석 및 긍정적인 확인(깜짝 선물도 포함!)의 크리스탈 클럽 구독 상자입니다! 만약 여러분이 보석을 좋아하거나 영적 여행을 막 시작한다면, 이것은 완벽한 자기 관리 선물입니다. (그리고 픽업이 필요한 사람에게 보낼 수 있는 훌륭한 선물이 될 것입니다!) 매달 크리스탈은 세심하게 큐레이션되고 자기 관리 테마에 맞게 선택됩니다. 따라서 내부 평화가 필요하거나 개인적인 목표를 나타내거나 긍정적인 분위기를 원하든 필요한 모든 것을 얻을 수 있습니다💎 2025년을 자기애, 자기관리, 긍정의 해로 만들자!</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6.636155606407322</v>
+        <v>6.094808126410835</v>
       </c>
       <c r="I9" t="n">
-        <v>4.347826086956522</v>
+        <v>4.288939051918736</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>2.288329519450801</v>
+        <v>1.805869074492099</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6864988558352403</v>
+        <v>0.9029345372460496</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -917,19 +908,19 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7453887835351862561</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C10" t="n">
         <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -939,24 +930,23 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>It’s an award winner for a reason! 🏆 ad.
-Used across skin clinics all over Korea and the go to sunscreen after Laser treatments (hence the name) this is THE go to sunscreen.</t>
+          <t>새해는 새로운 의도를 의미하며, 모든 것을 실현할 수 있는 완벽한 방법을 찾았습니다✨ 광고. 이것은 크리스탈 보석으로 가득 찬 월간 상자, 힐링 보석 및 긍정적인 확인(깜짝 선물도 포함!)의 크리스탈 클럽 구독 상자입니다! 만약 여러분이 보석을 좋아하거나 영적 여행을 막 시작한다면, 이것은 완벽한 자기 관리 선물입니다. (그리고 픽업이 필요한 사람에게 보낼 수 있는 훌륭한 선물이 될 것입니다!) 매달 크리스탈은 세심하게 큐레이션되고 자기 관리 테마에 맞게 선택됩니다. 따라서 내부 평화가 필요하거나 개인적인 목표를 나타내거나 긍정적인 분위기를 원하든 필요한 모든 것을 얻을 수 있습니다💎 2025년을 자기애, 자기관리, 긍정의 해로 만들자!</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5.341880341880342</v>
+        <v>4.893617021276595</v>
       </c>
       <c r="I10" t="n">
-        <v>4.05982905982906</v>
+        <v>4.042553191489362</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1.282051282051282</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2136752136752137</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -968,7 +958,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7453514458241961249</t>
         </is>
@@ -1019,7 +1009,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7453186951336742176</t>
         </is>
@@ -1070,7 +1060,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7451625619198070049</t>
         </is>
@@ -1122,7 +1112,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7448598941765029153</t>
         </is>
@@ -1173,7 +1163,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7446862258849746209</t>
         </is>
@@ -1224,7 +1214,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7444682335863246113</t>
         </is>
@@ -1275,7 +1265,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7443884834927283488</t>
         </is>
@@ -1326,7 +1316,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7441256390863113505</t>
         </is>
@@ -1377,7 +1367,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7435297742559218976</t>
         </is>
@@ -1428,7 +1418,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7434956512482626849</t>
         </is>
@@ -1479,7 +1469,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7434173958917721376</t>
         </is>
@@ -1529,7 +1519,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7432756729630215456</t>
         </is>
@@ -1579,7 +1569,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7431249161124613408</t>
         </is>
@@ -1630,7 +1620,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7430504271767932192</t>
         </is>
@@ -1680,7 +1670,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7430159730217110816</t>
         </is>
@@ -1731,7 +1721,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7426430066856332576</t>
         </is>
@@ -1782,7 +1772,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7424993556269468960</t>
         </is>
@@ -1833,7 +1823,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7424209259283467552</t>
         </is>
@@ -1884,7 +1874,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7423829402141658401</t>
         </is>
@@ -1935,7 +1925,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7423102064718253344</t>
         </is>
@@ -1987,7 +1977,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7422744104381025568</t>
         </is>
@@ -2037,7 +2027,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7420404064615189793</t>
         </is>
@@ -2087,7 +2077,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7420088922543263009</t>
         </is>
@@ -2137,7 +2127,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7420054788991110432</t>
         </is>
@@ -2188,7 +2178,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7419730576808217889</t>
         </is>
@@ -2239,7 +2229,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/video/7419312574497377569</t>
         </is>
@@ -2290,7 +2280,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/photo/7419307738091490593</t>
         </is>
@@ -2344,7 +2334,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@cloverlee_ugc/photo/7419303422999989536</t>
         </is>
